--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard2.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/bindcard/RegisterBindCard2.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="3225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="4230"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,12 +21,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="167">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,611 +81,611 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getUsedBankCard(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡已存在！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedUserName()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李双双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄绑卡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-绑卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄无效卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CCB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CITIC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(HXB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(GDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PAB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ABC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BOC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CEB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(BCOM)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CMBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(SPDB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(ICBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(CIB)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入有效的银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入银行卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>validation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectCheckCode()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectValidation()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CITIC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(HXB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(GDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PAB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ABC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BOC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CEB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(BCOM)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CMBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(SPDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(ICBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(CIB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUnUsedBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一银行只能绑定一张卡，若需绑定新卡，请先解绑已绑定的卡！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(4)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(11)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(15)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(33)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(6)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(9)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(17)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(12)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(8)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getUsedBankCard(7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡已存在！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdCardGenerator.getUnUsedIDCard()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedUserName()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李双双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getUnUsedMobileNum()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${ConstantUtils.getCorrectPayPassword()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄绑卡成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄卡号已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-绑卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄无效卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入银行卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中信银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄卡号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CCB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CITIC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(HXB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(GDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(PAB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(ABC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(BOC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CMB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CEB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(BCOM)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CMBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(SPDB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(ICBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(CIB)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${IdBankGenerator.getInvalidBankCard(PSBC)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入有效的银行卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入银行卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1081,34 +1086,34 @@
         <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P1" t="s">
         <v>17</v>
@@ -1117,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="R1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
@@ -1125,7 +1130,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -1134,7 +1139,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>76</v>
@@ -1164,10 +1169,10 @@
         <v>80</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>16</v>
@@ -1176,12 +1181,12 @@
         <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -1223,7 +1228,7 @@
         <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>16</v>
@@ -1232,12 +1237,12 @@
         <v>21</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
@@ -1279,7 +1284,7 @@
         <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>16</v>
@@ -1288,12 +1293,12 @@
         <v>21</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -1335,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>16</v>
@@ -1344,12 +1349,12 @@
         <v>21</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
@@ -1391,7 +1396,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>16</v>
@@ -1400,12 +1405,12 @@
         <v>21</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
@@ -1447,7 +1452,7 @@
         <v>36</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>16</v>
@@ -1456,12 +1461,12 @@
         <v>21</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
@@ -1503,7 +1508,7 @@
         <v>29</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>16</v>
@@ -1512,12 +1517,12 @@
         <v>21</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
@@ -1559,7 +1564,7 @@
         <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>16</v>
@@ -1568,12 +1573,12 @@
         <v>21</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>81</v>
@@ -1615,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>16</v>
@@ -1624,12 +1629,12 @@
         <v>21</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
@@ -1671,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>16</v>
@@ -1680,12 +1685,12 @@
         <v>21</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
@@ -1727,7 +1732,7 @@
         <v>31</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>16</v>
@@ -1736,12 +1741,12 @@
         <v>21</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
@@ -1783,7 +1788,7 @@
         <v>32</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>16</v>
@@ -1792,12 +1797,12 @@
         <v>21</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -1839,7 +1844,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>16</v>
@@ -1848,12 +1853,12 @@
         <v>21</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>81</v>
@@ -1895,7 +1900,7 @@
         <v>33</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>16</v>
@@ -1904,12 +1909,12 @@
         <v>21</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>112</v>
@@ -1951,7 +1956,7 @@
         <v>34</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>16</v>
@@ -1960,12 +1965,12 @@
         <v>21</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>113</v>
@@ -2004,7 +2009,7 @@
         <v>19</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>57</v>
@@ -2016,12 +2021,12 @@
         <v>72</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>113</v>
@@ -2072,12 +2077,12 @@
         <v>72</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
         <v>113</v>
@@ -2128,12 +2133,12 @@
         <v>72</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
@@ -2184,12 +2189,12 @@
         <v>72</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>113</v>
@@ -2240,12 +2245,12 @@
         <v>72</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
         <v>113</v>
@@ -2296,12 +2301,12 @@
         <v>72</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
@@ -2352,12 +2357,12 @@
         <v>72</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
@@ -2408,12 +2413,12 @@
         <v>72</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
         <v>113</v>
@@ -2464,12 +2469,12 @@
         <v>72</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
         <v>113</v>
@@ -2520,12 +2525,12 @@
         <v>72</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>113</v>
@@ -2576,12 +2581,12 @@
         <v>72</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>113</v>
@@ -2632,12 +2637,12 @@
         <v>72</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>113</v>
@@ -2688,12 +2693,12 @@
         <v>72</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>113</v>
@@ -2744,12 +2749,12 @@
         <v>72</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
         <v>113</v>
@@ -2800,12 +2805,12 @@
         <v>72</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>113</v>
@@ -2844,7 +2849,7 @@
         <v>19</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>148</v>
@@ -2858,7 +2863,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
         <v>115</v>
@@ -2911,7 +2916,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
         <v>113</v>
@@ -2964,7 +2969,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>118</v>
@@ -3017,7 +3022,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>115</v>
@@ -3070,7 +3075,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>115</v>
@@ -3123,7 +3128,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
         <v>122</v>
@@ -3176,7 +3181,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>115</v>
@@ -3229,7 +3234,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>115</v>
@@ -3282,7 +3287,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>115</v>
@@ -3335,7 +3340,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>115</v>
@@ -3388,7 +3393,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
         <v>115</v>
@@ -3441,7 +3446,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
         <v>115</v>
@@ -3494,7 +3499,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
         <v>115</v>
@@ -3547,7 +3552,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>115</v>
@@ -3600,7 +3605,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>115</v>
@@ -3639,7 +3644,7 @@
         <v>19</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
@@ -3651,7 +3656,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -3702,7 +3707,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>115</v>
@@ -3753,7 +3758,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
         <v>115</v>
@@ -3804,7 +3809,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>115</v>
@@ -3855,7 +3860,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>115</v>
@@ -3906,7 +3911,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
         <v>115</v>
@@ -3957,7 +3962,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
@@ -4008,7 +4013,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
@@ -4059,7 +4064,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
         <v>115</v>
@@ -4110,7 +4115,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
         <v>115</v>
@@ -4161,7 +4166,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
@@ -4212,7 +4217,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
         <v>115</v>
@@ -4263,7 +4268,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
@@ -4314,7 +4319,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
         <v>115</v>
@@ -4382,7 +4387,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>56</v>
@@ -4390,7 +4395,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
